--- a/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 4.xlsx
+++ b/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 4.xlsx
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>132486192.730029</v>
+        <v>131028089.3546601</v>
       </c>
       <c r="K2" t="n">
-        <v>3932485.345643849</v>
+        <v>3889205.589180802</v>
       </c>
       <c r="L2" t="n">
-        <v>83741727.87952119</v>
+        <v>82820091.49187763</v>
       </c>
       <c r="M2" t="n">
-        <v>36158811.3194105</v>
+        <v>35760858.26673582</v>
       </c>
       <c r="N2" t="n">
         <v>25093047.05783327</v>
@@ -588,7 +588,7 @@
         <v>125225483.8709677</v>
       </c>
       <c r="Q2" t="n">
-        <v>281412264.3324378</v>
+        <v>278591291.7602876</v>
       </c>
       <c r="R2" t="n">
         <v>11377.00055445544</v>
@@ -634,16 +634,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32766663.01077078</v>
+        <v>31951570.5388128</v>
       </c>
       <c r="K3" t="n">
-        <v>1134177.936324623</v>
+        <v>1105964.508016249</v>
       </c>
       <c r="L3" t="n">
-        <v>22527080.82518927</v>
+        <v>21966704.75058671</v>
       </c>
       <c r="M3" t="n">
-        <v>8232624.083087981</v>
+        <v>8027832.099467945</v>
       </c>
       <c r="N3" t="n">
         <v>5154743.882508781</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>69815289.73788144</v>
+        <v>68206815.77939248</v>
       </c>
       <c r="R3" t="n">
         <v>3317.079445544554</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49851707.95382252</v>
+        <v>49583128.65907414</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31157317.47071777</v>
+        <v>30989455.41150231</v>
       </c>
       <c r="M4" t="n">
-        <v>6156919.710264545</v>
+        <v>6123748.90786923</v>
       </c>
       <c r="N4" t="n">
         <v>3486094.292712319</v>
@@ -722,7 +722,7 @@
         <v>777132.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>90652039.42751716</v>
+        <v>90182427.27115801</v>
       </c>
       <c r="R4" t="n">
         <v>8716.639999999999</v>
@@ -835,16 +835,16 @@
         <v>173280888</v>
       </c>
       <c r="J6" t="n">
-        <v>202765239.4994231</v>
+        <v>197721319.7009252</v>
       </c>
       <c r="K6" t="n">
-        <v>7018470.596722934</v>
+        <v>6843881.486255175</v>
       </c>
       <c r="L6" t="n">
-        <v>139401102.1885538</v>
+        <v>135933407.3262731</v>
       </c>
       <c r="M6" t="n">
-        <v>50944766.43432803</v>
+        <v>49677481.58470424</v>
       </c>
       <c r="N6" t="n">
         <v>43930250.58963231</v>
@@ -856,7 +856,7 @@
         <v>255027097.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>444059829.3086603</v>
+        <v>434106340.68779</v>
       </c>
       <c r="R6" t="n">
         <v>12577.62436363636</v>
@@ -902,16 +902,16 @@
         <v>63715509</v>
       </c>
       <c r="J7" t="n">
-        <v>93838509.08954827</v>
+        <v>93332948.06413954</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>58649068.18017463</v>
+        <v>58333092.53929846</v>
       </c>
       <c r="M7" t="n">
-        <v>11589495.92520385</v>
+        <v>11527056.76775384</v>
       </c>
       <c r="N7" t="n">
         <v>10074533.89309509</v>
@@ -923,7 +923,7 @@
         <v>64617236.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>174151607.0880219</v>
+        <v>173267631.264287</v>
       </c>
       <c r="R7" t="n">
         <v>14876.76</v>
@@ -969,16 +969,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>184033862.7062357</v>
+        <v>182008441.1067114</v>
       </c>
       <c r="K8" t="n">
-        <v>5462535.025587383</v>
+        <v>5402416.000391223</v>
       </c>
       <c r="L8" t="n">
-        <v>116323922.7710833</v>
+        <v>115043696.5004538</v>
       </c>
       <c r="M8" t="n">
-        <v>50227465.82760537</v>
+        <v>49674677.37508568</v>
       </c>
       <c r="N8" t="n">
         <v>33575925.79941095</v>
@@ -990,7 +990,7 @@
         <v>201194198.1006452</v>
       </c>
       <c r="Q8" t="n">
-        <v>389623712.1299226</v>
+        <v>385705156.782053</v>
       </c>
       <c r="R8" t="n">
         <v>18914.5979009901</v>
@@ -1036,16 +1036,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>44379391.89832949</v>
+        <v>43275425.09418741</v>
       </c>
       <c r="K9" t="n">
-        <v>1536138.333709589</v>
+        <v>1497925.873951902</v>
       </c>
       <c r="L9" t="n">
-        <v>30510831.9372587</v>
+        <v>29751854.75923298</v>
       </c>
       <c r="M9" t="n">
-        <v>11150322.21666544</v>
+        <v>10872950.55706976</v>
       </c>
       <c r="N9" t="n">
         <v>6788623.788914544</v>
@@ -1057,7 +1057,7 @@
         <v>43929492.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>94365308.17487776</v>
+        <v>92186780.0733566</v>
       </c>
       <c r="R9" t="n">
         <v>5514.742099009901</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>165390372.2703288</v>
+        <v>164499320.963046</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>103368982.6675578</v>
+        <v>102812075.6005135</v>
       </c>
       <c r="M10" t="n">
-        <v>20426486.56817178</v>
+        <v>20316437.55316615</v>
       </c>
       <c r="N10" t="n">
         <v>10282387.19396411</v>
@@ -1124,7 +1124,7 @@
         <v>14207450.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>299468228.7000225</v>
+        <v>297910221.3106898</v>
       </c>
       <c r="R10" t="n">
         <v>14217.02</v>
@@ -1237,16 +1237,16 @@
         <v>355327709</v>
       </c>
       <c r="J12" t="n">
-        <v>320416185.0888896</v>
+        <v>312445619.9973636</v>
       </c>
       <c r="K12" t="n">
-        <v>11090814.08288872</v>
+        <v>10814922.72758419</v>
       </c>
       <c r="L12" t="n">
-        <v>220286127.3002859</v>
+        <v>214806363.7985763</v>
       </c>
       <c r="M12" t="n">
-        <v>80504566.51954067</v>
+        <v>78501962.0398978</v>
       </c>
       <c r="N12" t="n">
         <v>72426247.57108288</v>
@@ -1258,7 +1258,7 @@
         <v>563527181.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>704723940.5626878</v>
+        <v>688995116.1345047</v>
       </c>
       <c r="R12" t="n">
         <v>20910.06081818182</v>
@@ -1304,16 +1304,16 @@
         <v>117734034</v>
       </c>
       <c r="J13" t="n">
-        <v>193541924.9971933</v>
+        <v>192499205.3822878</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>120963703.1216102</v>
+        <v>120312003.3623031</v>
       </c>
       <c r="M13" t="n">
-        <v>23903335.34573294</v>
+        <v>23774554.58349231</v>
       </c>
       <c r="N13" t="n">
         <v>20854534.00267641</v>
@@ -1325,7 +1325,7 @@
         <v>325500473.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>359263497.4672128</v>
+        <v>357440297.3307596</v>
       </c>
       <c r="R13" t="n">
         <v>20558.43</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190330539.0012031</v>
+        <v>188235818.0673852</v>
       </c>
       <c r="K14" t="n">
-        <v>5649434.405409399</v>
+        <v>5587258.421590176</v>
       </c>
       <c r="L14" t="n">
-        <v>120303919.0406801</v>
+        <v>118979890.1225817</v>
       </c>
       <c r="M14" t="n">
-        <v>51945987.02138051</v>
+        <v>51374285.03906839</v>
       </c>
       <c r="N14" t="n">
         <v>34202744.63481054</v>
@@ -1392,7 +1392,7 @@
         <v>224316650.6832258</v>
       </c>
       <c r="Q14" t="n">
-        <v>402432624.1034837</v>
+        <v>398379996.2854359</v>
       </c>
       <c r="R14" t="n">
         <v>16612.98607920792</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57307390.5259349</v>
+        <v>55881831.18258978</v>
       </c>
       <c r="K15" t="n">
-        <v>1983625.183360568</v>
+        <v>1934281.191462095</v>
       </c>
       <c r="L15" t="n">
-        <v>39398830.99582235</v>
+        <v>38418758.94704267</v>
       </c>
       <c r="M15" t="n">
-        <v>14398481.87249513</v>
+        <v>14040310.08740867</v>
       </c>
       <c r="N15" t="n">
         <v>8360795.538529735</v>
@@ -1459,7 +1459,7 @@
         <v>55184737.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>121449124.1161427</v>
+        <v>118635976.947033</v>
       </c>
       <c r="R15" t="n">
         <v>4843.683920792079</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>126095496.5890805</v>
+        <v>125416148.9611875</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>78809685.36710966</v>
+        <v>78385093.0996823</v>
       </c>
       <c r="M16" t="n">
-        <v>15573385.14949267</v>
+        <v>15489482.53166923</v>
       </c>
       <c r="N16" t="n">
         <v>9177580.658183722</v>
@@ -1526,7 +1526,7 @@
         <v>3611397.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>229656147.7638665</v>
+        <v>228468305.2507228</v>
       </c>
       <c r="R16" t="n">
         <v>14217.02</v>
@@ -1639,16 +1639,16 @@
         <v>322477419</v>
       </c>
       <c r="J18" t="n">
-        <v>359825267.0684376</v>
+        <v>350874374.9281136</v>
       </c>
       <c r="K18" t="n">
-        <v>12454911.22202428</v>
+        <v>12145087.04576807</v>
       </c>
       <c r="L18" t="n">
-        <v>247379871.1675808</v>
+        <v>241226132.8196645</v>
       </c>
       <c r="M18" t="n">
-        <v>90406098.36886472</v>
+        <v>88157186.71816255</v>
       </c>
       <c r="N18" t="n">
         <v>72738430.81396256</v>
@@ -1660,7 +1660,7 @@
         <v>466600135.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>782804578.64087</v>
+        <v>765141212.3256713</v>
       </c>
       <c r="R18" t="n">
         <v>20882.54127272727</v>
@@ -1706,16 +1706,16 @@
         <v>218217449.67</v>
       </c>
       <c r="J19" t="n">
-        <v>268026241.5870222</v>
+        <v>266582232.9081986</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>167516400.9896238</v>
+        <v>166613895.5653712</v>
       </c>
       <c r="M19" t="n">
-        <v>33102497.7363635</v>
+        <v>32924155.89289692</v>
       </c>
       <c r="N19" t="n">
         <v>25899495.49909111</v>
@@ -1727,7 +1727,7 @@
         <v>219435573.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>494544635.8121006</v>
+        <v>492019779.8655579</v>
       </c>
       <c r="R19" t="n">
         <v>20640.03</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>226904217.1299371</v>
+        <v>224406977.2435379</v>
       </c>
       <c r="K20" t="n">
-        <v>6735022.649088638</v>
+        <v>6660899.006047334</v>
       </c>
       <c r="L20" t="n">
-        <v>143421369.533432</v>
+        <v>141842916.8757814</v>
       </c>
       <c r="M20" t="n">
-        <v>61927862.86416029</v>
+        <v>61246303.34455348</v>
       </c>
       <c r="N20" t="n">
         <v>33438446.87827778</v>
@@ -1794,7 +1794,7 @@
         <v>144943358.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>472426919.0548959</v>
+        <v>467595543.3481979</v>
       </c>
       <c r="R20" t="n">
         <v>16612.98607920792</v>
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>69833206.03528164</v>
+        <v>68096058.72451222</v>
       </c>
       <c r="K21" t="n">
-        <v>2417190.956613217</v>
+        <v>2357061.728581279</v>
       </c>
       <c r="L21" t="n">
-        <v>48010329.1605183</v>
+        <v>46816040.38408417</v>
       </c>
       <c r="M21" t="n">
-        <v>17545593.0198423</v>
+        <v>17109134.75792497</v>
       </c>
       <c r="N21" t="n">
         <v>8376890.854840553</v>
@@ -1861,7 +1861,7 @@
         <v>2101239.17</v>
       </c>
       <c r="Q21" t="n">
-        <v>146183210.027096</v>
+        <v>142755186.4499432</v>
       </c>
       <c r="R21" t="n">
         <v>4843.683920792079</v>
@@ -1901,22 +1901,22 @@
         <v>347141.36</v>
       </c>
       <c r="H22" t="n">
-        <v>192730000</v>
+        <v>102730000</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>84454658.18059345</v>
+        <v>83999653.2577256</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>52784161.36215717</v>
+        <v>52499783.28536862</v>
       </c>
       <c r="M22" t="n">
-        <v>10430546.33268347</v>
+        <v>10374351.09097846</v>
       </c>
       <c r="N22" t="n">
         <v>5570816.465882441</v>
@@ -1925,10 +1925,10 @@
         <v>323989164.84</v>
       </c>
       <c r="P22" t="n">
-        <v>193077141.36</v>
+        <v>103077141.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>153240182.3413165</v>
+        <v>152444604.0999551</v>
       </c>
       <c r="R22" t="n">
         <v>14217.02</v>
@@ -2041,16 +2041,16 @@
         <v>339956584</v>
       </c>
       <c r="J24" t="n">
-        <v>359286004.9785231</v>
+        <v>350348527.3403032</v>
       </c>
       <c r="K24" t="n">
-        <v>12436245.32479586</v>
+        <v>12126885.4751117</v>
       </c>
       <c r="L24" t="n">
-        <v>247009128.4806776</v>
+        <v>240864612.6029601</v>
       </c>
       <c r="M24" t="n">
-        <v>90270608.76874685</v>
+        <v>88025067.51169901</v>
       </c>
       <c r="N24" t="n">
         <v>74162460.38202959</v>
@@ -2062,7 +2062,7 @@
         <v>496428816.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>783164447.934773</v>
+        <v>765527553.3121035</v>
       </c>
       <c r="R24" t="n">
         <v>20855.02172727273</v>
@@ -2099,7 +2099,7 @@
         <v>481</v>
       </c>
       <c r="G25" t="n">
-        <v>1758423.16</v>
+        <v>18900641.55999999</v>
       </c>
       <c r="H25" t="n">
         <v>102730000</v>
@@ -2108,16 +2108,16 @@
         <v>191374898</v>
       </c>
       <c r="J25" t="n">
-        <v>282102017.9504545</v>
+        <v>280582175.1178195</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>176313761.2166499</v>
+        <v>175363859.446266</v>
       </c>
       <c r="M25" t="n">
-        <v>34840922.12514408</v>
+        <v>34653214.40805999</v>
       </c>
       <c r="N25" t="n">
         <v>27533073.48025697</v>
@@ -2126,10 +2126,10 @@
         <v>609861957.39</v>
       </c>
       <c r="P25" t="n">
-        <v>295863321.16</v>
+        <v>313005539.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>520789774.7725055</v>
+        <v>518132322.4524025</v>
       </c>
       <c r="R25" t="n">
         <v>20612.83</v>
@@ -2163,46 +2163,46 @@
         <v>631.856</v>
       </c>
       <c r="F26" t="n">
-        <v>570.0958333333333</v>
+        <v>775.1322222222223</v>
       </c>
       <c r="G26" t="n">
-        <v>28501935.48387097</v>
+        <v>41676451.61290322</v>
       </c>
       <c r="H26" t="n">
-        <v>46840000</v>
+        <v>81970000</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124379946.9734552</v>
+        <v>167252292.6275818</v>
       </c>
       <c r="K26" t="n">
-        <v>3691873.91294254</v>
+        <v>4964420.640598767</v>
       </c>
       <c r="L26" t="n">
-        <v>78617940.92268109</v>
+        <v>105716646.2997804</v>
       </c>
       <c r="M26" t="n">
-        <v>33946413.14582869</v>
+        <v>45647353.63920543</v>
       </c>
       <c r="N26" t="n">
-        <v>25739801.55421701</v>
+        <v>27291530.60304336</v>
       </c>
       <c r="O26" t="n">
         <v>554406132.327</v>
       </c>
       <c r="P26" t="n">
-        <v>75341935.48387097</v>
+        <v>123646451.6129032</v>
       </c>
       <c r="Q26" t="n">
-        <v>266375976.5091246</v>
+        <v>350872243.8102098</v>
       </c>
       <c r="R26" t="n">
         <v>14114.83675247525</v>
       </c>
       <c r="S26" t="n">
-        <v>9153.092172616267</v>
+        <v>8899.05237096842</v>
       </c>
     </row>
     <row r="27">
@@ -2230,10 +2230,10 @@
         <v>184.224</v>
       </c>
       <c r="F27" t="n">
-        <v>113.9680555555556</v>
+        <v>181.5080555555556</v>
       </c>
       <c r="G27" t="n">
-        <v>249690.8126</v>
+        <v>629073.1725999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2242,34 +2242,34 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>30699479.19530428</v>
+        <v>47676434.50192255</v>
       </c>
       <c r="K27" t="n">
-        <v>1062624.898621065</v>
+        <v>1650261.428114666</v>
       </c>
       <c r="L27" t="n">
-        <v>21105891.95172267</v>
+        <v>32777548.72776065</v>
       </c>
       <c r="M27" t="n">
-        <v>7713244.149349075</v>
+        <v>11978704.17098239</v>
       </c>
       <c r="N27" t="n">
-        <v>5646697.851087258</v>
+        <v>6499935.77366186</v>
       </c>
       <c r="O27" t="n">
         <v>193663701.2439622</v>
       </c>
       <c r="P27" t="n">
-        <v>249690.8126</v>
+        <v>629073.1725999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>66227938.04608434</v>
+        <v>100582884.6024421</v>
       </c>
       <c r="R27" t="n">
         <v>4115.323247524752</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.797827383732</v>
+        <v>2083.837629031579</v>
       </c>
     </row>
     <row r="28">
@@ -2309,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>55716614.77191929</v>
+        <v>55416437.91308287</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>34822884.23197868</v>
+        <v>34635273.69520846</v>
       </c>
       <c r="M28" t="n">
-        <v>6881263.205589786</v>
+        <v>6844189.955853845</v>
       </c>
       <c r="N28" t="n">
-        <v>4401934.309952941</v>
+        <v>3961718.775688799</v>
       </c>
       <c r="O28" t="n">
         <v>275271551.2</v>
@@ -2330,7 +2330,7 @@
         <v>198198.54</v>
       </c>
       <c r="Q28" t="n">
-        <v>101822696.5194407</v>
+        <v>100857620.339834</v>
       </c>
       <c r="R28" t="n">
         <v>12079.16</v>
@@ -2431,40 +2431,40 @@
         <v>751.4400000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>816.4577777777778</v>
+        <v>1181.287777777778</v>
       </c>
       <c r="G30" t="n">
-        <v>2170742.7</v>
+        <v>4597314.96</v>
       </c>
       <c r="H30" t="n">
-        <v>103570000</v>
+        <v>126990000</v>
       </c>
       <c r="I30" t="n">
         <v>341678150</v>
       </c>
       <c r="J30" t="n">
-        <v>219928544.3675487</v>
+        <v>310286996.3140876</v>
       </c>
       <c r="K30" t="n">
-        <v>7612557.388211046</v>
+        <v>10740204.61077154</v>
       </c>
       <c r="L30" t="n">
-        <v>151200874.2881581</v>
+        <v>213322310.0159759</v>
       </c>
       <c r="M30" t="n">
-        <v>55257046.78329934</v>
+        <v>77959607.8393672</v>
       </c>
       <c r="N30" t="n">
-        <v>60462205.28459129</v>
+        <v>69189632.22192509</v>
       </c>
       <c r="O30" t="n">
         <v>767400844.743289</v>
       </c>
       <c r="P30" t="n">
-        <v>447418892.7</v>
+        <v>473265464.96</v>
       </c>
       <c r="Q30" t="n">
-        <v>494461228.1118085</v>
+        <v>681498751.0021273</v>
       </c>
       <c r="R30" t="n">
         <v>18013.33063636364</v>
@@ -2510,19 +2510,19 @@
         <v>102362909</v>
       </c>
       <c r="J31" t="n">
-        <v>173601241.8156643</v>
+        <v>172665953.9186582</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>108500776.133323</v>
+        <v>107916221.1977022</v>
       </c>
       <c r="M31" t="n">
-        <v>21440567.46162713</v>
+        <v>21325055.02034461</v>
       </c>
       <c r="N31" t="n">
-        <v>19890414.86731717</v>
+        <v>17876916.524799</v>
       </c>
       <c r="O31" t="n">
         <v>518158214.06</v>
@@ -2531,7 +2531,7 @@
         <v>102881107.54</v>
       </c>
       <c r="Q31" t="n">
-        <v>323433000.2779316</v>
+        <v>319784146.661504</v>
       </c>
       <c r="R31" t="n">
         <v>17804.14</v>
